--- a/all.xlsx
+++ b/all.xlsx
@@ -511,26 +511,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aliados Centro Automotivo</t>
+          <t>Visual Automotiva</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ChIJu0dBZpi_uZQRQFydZl2_NwI</t>
+          <t>ChIJvaICoq-_uZQRlJJG5iWcHAs</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-21.149973</v>
+        <v>-21.1807116</v>
       </c>
       <c r="E2" t="n">
-        <v>-47.8019367</v>
+        <v>-47.7865341</v>
       </c>
       <c r="F2" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['car_repair', 'car_wash', 'point_of_interest', 'establishment']</t>
+          <t>['point_of_interest', 'store', 'establishment']</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -551,26 +551,26 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ribeirao Automotivo</t>
+          <t>Aliados Centro Automotivo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ChIJT2aWUj-XuZQRKMLG2CFtHQ4</t>
+          <t>ChIJu0dBZpi_uZQRQFydZl2_NwI</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-21.1380531</v>
+        <v>-21.149973</v>
       </c>
       <c r="E3" t="n">
-        <v>-47.8459471</v>
+        <v>-47.8019367</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['electronics_store', 'car_repair', 'point_of_interest', 'store', 'establishment']</t>
+          <t>['car_repair', 'car_wash', 'point_of_interest', 'establishment']</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -591,26 +591,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Otimiza Centro Automotivo ltda</t>
+          <t>Ribeirao Automotivo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ChIJd-0ZHi2_uZQRHfMVDC-z9Eo</t>
+          <t>ChIJT2aWUj-XuZQRKMLG2CFtHQ4</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-21.2034902</v>
+        <v>-21.1380531</v>
       </c>
       <c r="E4" t="n">
-        <v>-47.7957871</v>
+        <v>-47.8459471</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['car_repair', 'point_of_interest', 'establishment']</t>
+          <t>['electronics_store', 'car_repair', 'point_of_interest', 'store', 'establishment']</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -631,19 +631,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rossato Centro Automotivo</t>
+          <t>Otimiza Centro Automotivo ltda</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ChIJV8E_l2q-uZQRIGmU6cl2tPg</t>
+          <t>ChIJd-0ZHi2_uZQRHfMVDC-z9Eo</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-21.1581837</v>
+        <v>-21.2034902</v>
       </c>
       <c r="E5" t="n">
-        <v>-47.8255824</v>
+        <v>-47.7957871</v>
       </c>
       <c r="F5" t="n">
         <v>5</v>
@@ -671,22 +671,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pepe Automotive Services</t>
+          <t>Rossato Centro Automotivo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ChIJncuwZa6_uZQRXwdY2DBs7vA</t>
+          <t>ChIJV8E_l2q-uZQRIGmU6cl2tPg</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-21.1591587</v>
+        <v>-21.1581837</v>
       </c>
       <c r="E6" t="n">
-        <v>-47.79750199999999</v>
+        <v>-47.8255824</v>
       </c>
       <c r="F6" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -711,26 +711,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R2 Centro Automotivo</t>
+          <t>Pepe Automotive Services</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ChIJrU-__w2_uZQRCtCukSBE1EE</t>
+          <t>ChIJncuwZa6_uZQRXwdY2DBs7vA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-21.1608157</v>
+        <v>-21.1591587</v>
       </c>
       <c r="E7" t="n">
-        <v>-47.8008247</v>
+        <v>-47.79750199999999</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['electronics_store', 'car_repair', 'point_of_interest', 'store', 'establishment']</t>
+          <t>['car_repair', 'point_of_interest', 'establishment']</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -751,26 +751,26 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Help Car Centro Automotivo</t>
+          <t>R2 Centro Automotivo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ChIJf-LnzRy_uZQR8M8Oc9wi3d4</t>
+          <t>ChIJrU-__w2_uZQRCtCukSBE1EE</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-21.1776052</v>
+        <v>-21.1608157</v>
       </c>
       <c r="E8" t="n">
-        <v>-47.8000502</v>
+        <v>-47.8008247</v>
       </c>
       <c r="F8" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['car_repair', 'point_of_interest', 'establishment']</t>
+          <t>['electronics_store', 'car_repair', 'point_of_interest', 'store', 'establishment']</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -791,26 +791,26 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Marra Estética e Centro Automotivo</t>
+          <t>Help Car Centro Automotivo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ChIJKzJ5uUG_uZQR71J0UM2jIo8</t>
+          <t>ChIJf-LnzRy_uZQR8M8Oc9wi3d4</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-21.18153</v>
+        <v>-21.1776052</v>
       </c>
       <c r="E9" t="n">
-        <v>-47.7862583</v>
+        <v>-47.8000502</v>
       </c>
       <c r="F9" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['point_of_interest', 'store', 'establishment']</t>
+          <t>['car_repair', 'point_of_interest', 'establishment']</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -991,26 +991,26 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Hit Car Centro Automotivo</t>
+          <t>Comercial Automotiva</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ChIJzxXOaLi_uZQRbZUgNgaxKxs</t>
+          <t>ChIJNccKtlK_uZQRQri6ODn9V94</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-21.1468289</v>
+        <v>-21.1990802</v>
       </c>
       <c r="E14" t="n">
-        <v>-47.791619</v>
+        <v>-47.769</v>
       </c>
       <c r="F14" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['car_repair', 'point_of_interest', 'establishment']</t>
+          <t>['car_repair', 'point_of_interest', 'store', 'establishment']</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -1031,22 +1031,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Comercial Automotiva</t>
+          <t>Checar Centro Automotivo</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ChIJNccKtlK_uZQRQri6ODn9V94</t>
+          <t>ChIJ3_SybbS_uZQR62XGHzKDu6c</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-21.1990802</v>
+        <v>-21.1552981</v>
       </c>
       <c r="E15" t="n">
-        <v>-47.769</v>
+        <v>-47.8000169</v>
       </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1071,26 +1071,26 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Checar Centro Automotivo</t>
+          <t>Jmcar Centro Automotivo</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ChIJ3_SybbS_uZQR62XGHzKDu6c</t>
+          <t>ChIJ0-qTqmvAuZQR1OxjsFGmrsE</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-21.1552981</v>
+        <v>-21.1346054</v>
       </c>
       <c r="E16" t="n">
-        <v>-47.8000169</v>
+        <v>-47.7465949</v>
       </c>
       <c r="F16" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['car_repair', 'point_of_interest', 'store', 'establishment']</t>
+          <t>['car_repair', 'point_of_interest', 'establishment']</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -1111,26 +1111,26 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Jmcar Centro Automotivo</t>
+          <t>Medeiros Centro Automotivo</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ChIJ0-qTqmvAuZQR1OxjsFGmrsE</t>
+          <t>ChIJo4eNrjG_uZQRMPgwAnY7rv8</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-21.1346054</v>
+        <v>-21.1727487</v>
       </c>
       <c r="E17" t="n">
-        <v>-47.7465949</v>
+        <v>-47.8058314</v>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['car_repair', 'point_of_interest', 'establishment']</t>
+          <t>['car_repair', 'point_of_interest', 'store', 'establishment']</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -1151,26 +1151,26 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Medeiros Centro Automotivo</t>
+          <t>Marra Estética e Centro Automotivo</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ChIJo4eNrjG_uZQRMPgwAnY7rv8</t>
+          <t>ChIJKzJ5uUG_uZQR71J0UM2jIo8</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-21.1727487</v>
+        <v>-21.18153</v>
       </c>
       <c r="E18" t="n">
-        <v>-47.8058314</v>
+        <v>-47.7862583</v>
       </c>
       <c r="F18" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['car_repair', 'point_of_interest', 'store', 'establishment']</t>
+          <t>['point_of_interest', 'store', 'establishment']</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -1191,22 +1191,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Centro automotivo MSP</t>
+          <t>Centro automotivo J.S</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ChIJseG9V26_uZQRDEkQRdu_D1Q</t>
+          <t>ChIJqTbqSmKVuZQR6KUD35RA7wU</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-21.1773307</v>
+        <v>-21.1194673</v>
       </c>
       <c r="E19" t="n">
-        <v>-47.7983863</v>
+        <v>-47.7833728</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1231,22 +1231,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Lotus Centro Automotivo</t>
+          <t>Centro automotivo MSP</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ChIJ-czpahy_uZQRuY9LCKFXh0c</t>
+          <t>ChIJseG9V26_uZQRDEkQRdu_D1Q</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-21.1784635</v>
+        <v>-21.1773307</v>
       </c>
       <c r="E20" t="n">
-        <v>-47.800849</v>
+        <v>-47.7983863</v>
       </c>
       <c r="F20" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1271,26 +1271,26 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Technical Automotive Center Star</t>
+          <t>Hit Car Centro Automotivo</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ChIJf8dY2iO_uZQRTpgFZhFMEbI</t>
+          <t>ChIJzxXOaLi_uZQRbZUgNgaxKxs</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-21.1894798</v>
+        <v>-21.1468289</v>
       </c>
       <c r="E21" t="n">
-        <v>-47.7981414</v>
+        <v>-47.791619</v>
       </c>
       <c r="F21" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['car_repair', 'point_of_interest', 'store', 'establishment']</t>
+          <t>['car_repair', 'point_of_interest', 'establishment']</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -1311,22 +1311,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>De Lucca Centro Automotivo</t>
+          <t>Lotus Centro Automotivo</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ChIJVaq0a6K_uZQRipDQqp_xf4k</t>
+          <t>ChIJ-czpahy_uZQRuY9LCKFXh0c</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-21.156583</v>
+        <v>-21.1784635</v>
       </c>
       <c r="E22" t="n">
-        <v>-47.7844661</v>
+        <v>-47.800849</v>
       </c>
       <c r="F22" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1351,26 +1351,26 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Automotive Center SOUTH ZONE</t>
+          <t>Technical Automotive Center Star</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ChIJa-HwuSq5uZQRRfg1fpiBEpI</t>
+          <t>ChIJf8dY2iO_uZQRTpgFZhFMEbI</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-21.2080446</v>
+        <v>-21.1894798</v>
       </c>
       <c r="E23" t="n">
-        <v>-47.8041053</v>
+        <v>-47.7981414</v>
       </c>
       <c r="F23" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['store', 'point_of_interest', 'car_repair', 'establishment']</t>
+          <t>['car_repair', 'point_of_interest', 'store', 'establishment']</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -1391,26 +1391,26 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Laércio Pereira Centro Automotivo</t>
+          <t>De Lucca Centro Automotivo</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ChIJz0QAjS--uZQRQAJuXPXBfrU</t>
+          <t>ChIJVaq0a6K_uZQRipDQqp_xf4k</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>-21.1415216</v>
+        <v>-21.156583</v>
       </c>
       <c r="E24" t="n">
-        <v>-47.8126296</v>
+        <v>-47.7844661</v>
       </c>
       <c r="F24" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['store', 'point_of_interest', 'car_repair', 'establishment']</t>
+          <t>['car_repair', 'point_of_interest', 'establishment']</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -1431,26 +1431,26 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3B Centro Automotivo</t>
+          <t>Automotive Center SOUTH ZONE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ChIJXarq6ga_uZQRf0-7HnsG6Ck</t>
+          <t>ChIJa-HwuSq5uZQRRfg1fpiBEpI</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-21.1659277</v>
+        <v>-21.2080446</v>
       </c>
       <c r="E25" t="n">
-        <v>-47.8261697</v>
+        <v>-47.8041053</v>
       </c>
       <c r="F25" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['point_of_interest', 'car_repair', 'establishment']</t>
+          <t>['car_repair', 'point_of_interest', 'store', 'establishment']</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['point_of_interest', 'car_repair', 'establishment']</t>
+          <t>['car_repair', 'point_of_interest', 'establishment']</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['point_of_interest', 'car_repair', 'establishment']</t>
+          <t>['car_repair', 'point_of_interest', 'establishment']</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -1650,7 +1650,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['point_of_interest', 'car_repair', 'establishment']</t>
+          <t>['car_repair', 'point_of_interest', 'establishment']</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -1730,7 +1730,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['point_of_interest', 'car_repair', 'establishment']</t>
+          <t>['car_repair', 'point_of_interest', 'establishment']</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['point_of_interest', 'car_repair', 'establishment']</t>
+          <t>['car_repair', 'point_of_interest', 'establishment']</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['point_of_interest', 'car_repair', 'establishment']</t>
+          <t>['car_repair', 'point_of_interest', 'establishment']</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -1911,26 +1911,26 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Rard Car Centro Automotivo</t>
+          <t>3B Centro Automotivo</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ChIJC5jwSlK-uZQRFs3QYqXAtLo</t>
+          <t>ChIJXarq6ga_uZQRf0-7HnsG6Ck</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>-21.1608346</v>
+        <v>-21.1659277</v>
       </c>
       <c r="E37" t="n">
-        <v>-47.80081029999999</v>
+        <v>-47.8261697</v>
       </c>
       <c r="F37" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['point_of_interest', 'car_repair', 'establishment']</t>
+          <t>['car_repair', 'point_of_interest', 'establishment']</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -1951,26 +1951,26 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Macarrão Soluções Automotivas</t>
+          <t>Rard Car Centro Automotivo</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ChIJ87OAb1i_uZQRCoCZA54oDlI</t>
+          <t>ChIJC5jwSlK-uZQRFs3QYqXAtLo</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-21.1794312</v>
+        <v>-21.1608346</v>
       </c>
       <c r="E38" t="n">
-        <v>-47.7766819</v>
+        <v>-47.80081029999999</v>
       </c>
       <c r="F38" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['store', 'point_of_interest', 'car_repair', 'establishment']</t>
+          <t>['car_repair', 'point_of_interest', 'establishment']</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -1991,26 +1991,26 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Matheus Centro Automotivo</t>
+          <t>Macarrão Soluções Automotivas</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ChIJwVeznXa-uZQR6UfM5jKOx2E</t>
+          <t>ChIJ87OAb1i_uZQRCoCZA54oDlI</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-21.1654378</v>
+        <v>-21.1794312</v>
       </c>
       <c r="E39" t="n">
-        <v>-47.83941859999999</v>
+        <v>-47.7766819</v>
       </c>
       <c r="F39" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['car_repair', 'point_of_interest', 'establishment']</t>
+          <t>['car_repair', 'point_of_interest', 'store', 'establishment']</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -2031,26 +2031,26 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>J.CarSom Automotivo Som, Acessórios e Ar Condicionado</t>
+          <t>Falco Centro Automotivo</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ChIJdWEtwcnAuZQRI4jvSX4LHZ0</t>
+          <t>ChIJ6yvhwvG_uZQR-f9iK43PEWk</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>-21.1824331</v>
+        <v>-21.1702569</v>
       </c>
       <c r="E40" t="n">
-        <v>-47.7430113</v>
+        <v>-47.8084672</v>
       </c>
       <c r="F40" t="n">
         <v>5</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['electronics_store', 'store', 'point_of_interest', 'car_repair', 'establishment']</t>
+          <t>['car_repair', 'point_of_interest', 'establishment']</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -2071,26 +2071,26 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>IR CENTRO AUTOMOTIVO</t>
+          <t>J.CarSom Automotivo Som, Acessórios e Ar Condicionado</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ChIJp9yemgqVuZQRm2NDeTEbRjA</t>
+          <t>ChIJdWEtwcnAuZQRI4jvSX4LHZ0</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>-21.119486</v>
+        <v>-21.1824331</v>
       </c>
       <c r="E41" t="n">
-        <v>-47.80993309999999</v>
+        <v>-47.7430113</v>
       </c>
       <c r="F41" t="n">
         <v>5</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['point_of_interest', 'car_repair', 'establishment']</t>
+          <t>['electronics_store', 'car_repair', 'point_of_interest', 'store', 'establishment']</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -2111,19 +2111,19 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Centro automotivo J.S</t>
+          <t>IR CENTRO AUTOMOTIVO</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ChIJqTbqSmKVuZQR6KUD35RA7wU</t>
+          <t>ChIJp9yemgqVuZQRm2NDeTEbRjA</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>-21.1194673</v>
+        <v>-21.119486</v>
       </c>
       <c r="E42" t="n">
-        <v>-47.7833728</v>
+        <v>-47.80993309999999</v>
       </c>
       <c r="F42" t="n">
         <v>5</v>
@@ -2151,26 +2151,26 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Formulacar Automotive Center</t>
+          <t>Arco-íris Centro Automotivo Mecânica em Geral</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ChIJO2D-r_i-uZQRRSmak6xg4jU</t>
+          <t>ChIJCaTcwj69uZQRjp_gLlO9LyE</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>-21.1709971</v>
+        <v>-21.1969657</v>
       </c>
       <c r="E43" t="n">
-        <v>-47.8087841</v>
+        <v>-47.8490093</v>
       </c>
       <c r="F43" t="n">
-        <v>2.3</v>
+        <v>4.9</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['car_repair', 'store', 'local_government_office', 'point_of_interest', 'establishment']</t>
+          <t>['car_repair', 'point_of_interest', 'establishment']</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -2191,26 +2191,26 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Falco Centro Automotivo</t>
+          <t>Formulacar Automotive Center</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ChIJ6yvhwvG_uZQR-f9iK43PEWk</t>
+          <t>ChIJO2D-r_i-uZQRRSmak6xg4jU</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>-21.1702569</v>
+        <v>-21.1709971</v>
       </c>
       <c r="E44" t="n">
-        <v>-47.8084672</v>
+        <v>-47.8087841</v>
       </c>
       <c r="F44" t="n">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['car_repair', 'point_of_interest', 'establishment']</t>
+          <t>['local_government_office', 'car_repair', 'point_of_interest', 'store', 'establishment']</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -2231,26 +2231,26 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Arco-íris Centro Automotivo Mecânica em Geral</t>
+          <t>Instalação de Som Automotivo em Ribeirão Preto</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ChIJCaTcwj69uZQRjp_gLlO9LyE</t>
+          <t>ChIJYdnKJiS-uZQRn2TAYGfRVLI</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>-21.1969657</v>
+        <v>-21.1393074</v>
       </c>
       <c r="E45" t="n">
-        <v>-47.8490093</v>
+        <v>-47.8165148</v>
       </c>
       <c r="F45" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['car_repair', 'point_of_interest', 'establishment']</t>
+          <t>['electronics_store', 'car_repair', 'point_of_interest', 'store', 'establishment']</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -2271,26 +2271,26 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Instalação de Som Automotivo em Ribeirão Preto</t>
+          <t>Leais Centro Técnico Automotivo.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ChIJYdnKJiS-uZQRn2TAYGfRVLI</t>
+          <t>ChIJT6V9NCq_uZQRRdD7InBO2_I</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>-21.1393074</v>
+        <v>-21.2026226</v>
       </c>
       <c r="E46" t="n">
-        <v>-47.8165148</v>
+        <v>-47.8009218</v>
       </c>
       <c r="F46" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['electronics_store', 'car_repair', 'store', 'point_of_interest', 'establishment']</t>
+          <t>['car_repair', 'point_of_interest', 'establishment']</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -2311,19 +2311,19 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Leais Centro Técnico Automotivo.</t>
+          <t>Trielo Centro Técnico Automotivo</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ChIJT6V9NCq_uZQRRdD7InBO2_I</t>
+          <t>ChIJEVAv_0y_uZQRhTMvGzWjOVo</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>-21.2026226</v>
+        <v>-21.1864463</v>
       </c>
       <c r="E47" t="n">
-        <v>-47.8009218</v>
+        <v>-47.7984085</v>
       </c>
       <c r="F47" t="n">
         <v>5</v>
@@ -2351,26 +2351,26 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Trielo Centro Técnico Automotivo</t>
+          <t>PRIME Service Centro Automotivo RP</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ChIJEVAv_0y_uZQRhTMvGzWjOVo</t>
+          <t>ChIJ9b9xKGa_uZQRreMHzKqaYQ0</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>-21.1864463</v>
+        <v>-21.2020438</v>
       </c>
       <c r="E48" t="n">
-        <v>-47.7984085</v>
+        <v>-47.8004397</v>
       </c>
       <c r="F48" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['car_repair', 'point_of_interest', 'establishment']</t>
+          <t>['car_repair', 'point_of_interest', 'store', 'establishment']</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -2391,26 +2391,26 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PRIME Service Centro Automotivo RP</t>
+          <t>Network Fenix ​​Automotive Center</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ChIJ9b9xKGa_uZQRreMHzKqaYQ0</t>
+          <t>ChIJJ7Ab1z--uZQR6aqCTqyme5Y</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>-21.2020438</v>
+        <v>-21.1534839</v>
       </c>
       <c r="E49" t="n">
-        <v>-47.8004397</v>
+        <v>-47.822791</v>
       </c>
       <c r="F49" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['car_repair', 'store', 'point_of_interest', 'establishment']</t>
+          <t>['car_repair', 'point_of_interest', 'establishment']</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -2431,26 +2431,26 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Space Car Som e Acessórios Automotivos L</t>
+          <t>Centro Automotivo Neves</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ChIJgZwL4lm-uZQRgG0PeRpOX5o</t>
+          <t>ChIJk9RxmkC-uZQR9DETUim7zJY</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>-21.1676987</v>
+        <v>-21.1550096</v>
       </c>
       <c r="E50" t="n">
-        <v>-47.8130968</v>
+        <v>-47.819715</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['car_repair', 'store', 'point_of_interest', 'establishment']</t>
+          <t>['car_repair', 'point_of_interest', 'establishment']</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -2471,22 +2471,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Network Fenix ​​Automotive Center</t>
+          <t>Três Estrelas Centro Técnico Automotivo</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ChIJJ7Ab1z--uZQR6aqCTqyme5Y</t>
+          <t>ChIJq1rbxL2_uZQRrM9gD2Sq0fU</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>-21.1534839</v>
+        <v>-21.1494966</v>
       </c>
       <c r="E51" t="n">
-        <v>-47.822791</v>
+        <v>-47.785163</v>
       </c>
       <c r="F51" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2511,22 +2511,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Centro Automotivo Neves</t>
+          <t>CENTRO AUTOMOTIVO PORTO SEGURO - HITCAR</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ChIJk9RxmkC-uZQR9DETUim7zJY</t>
+          <t>ChIJJ_4zW9m-uZQRHt1mr18zsLg</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>-21.1550096</v>
+        <v>-21.194888</v>
       </c>
       <c r="E52" t="n">
-        <v>-47.819715</v>
+        <v>-47.8076005</v>
       </c>
       <c r="F52" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2551,22 +2551,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Três Estrelas Centro Técnico Automotivo</t>
+          <t>Centro automotivo Stock Car Service</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ChIJq1rbxL2_uZQRrM9gD2Sq0fU</t>
+          <t>ChIJe3yh0vi_uZQRshVuiOMMLGk</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>-21.1494966</v>
+        <v>-21.1519949</v>
       </c>
       <c r="E53" t="n">
-        <v>-47.785163</v>
+        <v>-47.824642</v>
       </c>
       <c r="F53" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2591,26 +2591,26 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Visual Automotiva</t>
+          <t>Geracar- Mecanica e Centro Automotivo</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ChIJvaICoq-_uZQRlJJG5iWcHAs</t>
+          <t>ChIJkyHef6u_uZQRgSkYvwb-E4k</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>-21.1807116</v>
+        <v>-21.1676505</v>
       </c>
       <c r="E54" t="n">
-        <v>-47.7865341</v>
+        <v>-47.8029062</v>
       </c>
       <c r="F54" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['store', 'point_of_interest', 'establishment']</t>
+          <t>['car_repair', 'point_of_interest', 'establishment']</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -2631,22 +2631,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Centro automotivo Stock Car Service</t>
+          <t>Leais Centro Técnico Automotivo</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ChIJe3yh0vi_uZQRshVuiOMMLGk</t>
+          <t>ChIJATDkdWa5uZQRvH02c2zweno</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>-21.1519949</v>
+        <v>-21.2041863</v>
       </c>
       <c r="E55" t="n">
-        <v>-47.824642</v>
+        <v>-47.7772318</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2671,26 +2671,26 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CAR FOX SOM AUTOMOTIVO</t>
+          <t>Rps Centro Automotivo</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ChIJZdnkL8y_uZQR0SZwiUsj8Z8</t>
+          <t>ChIJ69EnTpS_uZQRsVVYiSDBfMo</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>-21.1414606</v>
+        <v>-21.136712</v>
       </c>
       <c r="E56" t="n">
-        <v>-47.798882</v>
+        <v>-47.7892745</v>
       </c>
       <c r="F56" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['electronics_store', 'car_repair', 'store', 'point_of_interest', 'establishment']</t>
+          <t>['car_repair', 'point_of_interest', 'establishment']</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -2711,26 +2711,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Geracar- Mecanica e Centro Automotivo</t>
+          <t>Gil Car Centro De Recuperação
+Automotivo</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ChIJkyHef6u_uZQRgSkYvwb-E4k</t>
+          <t>ChIJi6FWxii-uZQRcYaJ4NiZkuM</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>-21.1676505</v>
+        <v>-21.136854</v>
       </c>
       <c r="E57" t="n">
-        <v>-47.8029062</v>
+        <v>-47.8116846</v>
       </c>
       <c r="F57" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['car_repair', 'point_of_interest', 'establishment']</t>
+          <t>['point_of_interest', 'establishment']</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
@@ -2751,22 +2752,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Leais Centro Técnico Automotivo</t>
+          <t>CENTRO TÉCNICO AUTOMOTIVO DEDÉ</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ChIJATDkdWa5uZQRvH02c2zweno</t>
+          <t>ChIJ4ScFv1a-uZQRL7ZQgNrJKoo</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>-21.2041863</v>
+        <v>-21.166756</v>
       </c>
       <c r="E58" t="n">
-        <v>-47.7772318</v>
+        <v>-47.8092657</v>
       </c>
       <c r="F58" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2791,22 +2792,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Rps Centro Automotivo</t>
+          <t>AutoCar Centro Automotivo</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ChIJ69EnTpS_uZQRsVVYiSDBfMo</t>
+          <t>ChIJ6cFg2wW_uZQRaVqFZ91dVxw</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>-21.136712</v>
+        <v>-21.1745395</v>
       </c>
       <c r="E59" t="n">
-        <v>-47.7892745</v>
+        <v>-47.8357611</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2831,22 +2832,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CENTRO TÉCNICO AUTOMOTIVO DEDÉ</t>
+          <t>MB CENTRO AUTOMOTIVO</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ChIJ4ScFv1a-uZQRL7ZQgNrJKoo</t>
+          <t>ChIJNztiKWy_uZQR-PeV-i240Cg</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>-21.166756</v>
+        <v>-21.163489</v>
       </c>
       <c r="E60" t="n">
-        <v>-47.8092657</v>
+        <v>-47.7988478</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2871,22 +2872,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>AutoCar Centro Automotivo</t>
+          <t>Suspencar Centro Automotivo</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ChIJ6cFg2wW_uZQRaVqFZ91dVxw</t>
+          <t>ChIJAQa2v7S_uZQRU2BCuh7rcaI</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>-21.1745395</v>
+        <v>-21.144869</v>
       </c>
       <c r="E61" t="n">
-        <v>-47.8357611</v>
+        <v>-47.794595</v>
       </c>
       <c r="F61" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2911,22 +2912,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Auto Mecânica Paquinha</t>
+          <t>Auto Mecânica Maurinho</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ChIJMQV7f7S_uZQRVuleS_OsvQ4</t>
+          <t>ChIJXy1YTCPBuZQRxBbtvkM9i9g</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>-21.1534286</v>
+        <v>-21.1899032</v>
       </c>
       <c r="E62" t="n">
-        <v>-47.8006389</v>
+        <v>-47.7584192</v>
       </c>
       <c r="F62" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2951,22 +2952,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Auto Mecânica Maurinho</t>
+          <t>Auto Mecânica Paquinha</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ChIJXy1YTCPBuZQRxBbtvkM9i9g</t>
+          <t>ChIJMQV7f7S_uZQRVuleS_OsvQ4</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>-21.1899032</v>
+        <v>-21.1534286</v>
       </c>
       <c r="E63" t="n">
-        <v>-47.7584192</v>
+        <v>-47.8006389</v>
       </c>
       <c r="F63" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3671,22 +3672,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Auto Mecânica Simchryl</t>
+          <t>Auto Mecânica Zezão</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>ChIJYWxAxeK_uZQR9RjzEMuTorI</t>
+          <t>ChIJIYIuxbe_uZQRWs_VLN1K6Ig</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>-21.1782594</v>
+        <v>-21.1475884</v>
       </c>
       <c r="E81" t="n">
-        <v>-47.8191462</v>
+        <v>-47.7950854</v>
       </c>
       <c r="F81" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -3711,19 +3712,19 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Auto Mecânica Anchieta</t>
+          <t>Mecânica Zito</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>ChIJNyxsc2W-uZQRVH_rq_wKJvw</t>
+          <t>ChIJIwBLD1--uZQRV9kOy_pkeu0</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>-21.1684332</v>
+        <v>-21.1721381</v>
       </c>
       <c r="E82" t="n">
-        <v>-47.8306474</v>
+        <v>-47.8201888</v>
       </c>
       <c r="F82" t="n">
         <v>4.9</v>
@@ -3751,22 +3752,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Danilo mecanica em geral</t>
+          <t>Auto Mecânica Anchieta</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>ChIJBQPHoMKVuZQRP8IcvAEbyVA</t>
+          <t>ChIJNyxsc2W-uZQRVH_rq_wKJvw</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>-21.1040715</v>
+        <v>-21.1684332</v>
       </c>
       <c r="E83" t="n">
-        <v>-47.8281041</v>
+        <v>-47.8306474</v>
       </c>
       <c r="F83" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -3791,22 +3792,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Shalom Mecânica</t>
+          <t>Auto Mecânica Simchryl</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>ChIJrdIOYbC_uZQRH8C3_0ZMF8o</t>
+          <t>ChIJYWxAxeK_uZQR9RjzEMuTorI</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>-21.1541281</v>
+        <v>-21.1782594</v>
       </c>
       <c r="E84" t="n">
-        <v>-47.7943992</v>
+        <v>-47.8191462</v>
       </c>
       <c r="F84" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3831,22 +3832,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Mecânica Zito</t>
+          <t>R.A Mecânica ( oficina mecânica )</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>ChIJIwBLD1--uZQRV9kOy_pkeu0</t>
+          <t>ChIJ6-FUDVy_uZQRC516BrWO6z8</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>-21.1721381</v>
+        <v>-21.1821588</v>
       </c>
       <c r="E85" t="n">
-        <v>-47.8201888</v>
+        <v>-47.7700389</v>
       </c>
       <c r="F85" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -3871,22 +3872,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Auto Mecânica Zezão</t>
+          <t>Shalom Mecânica</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>ChIJIYIuxbe_uZQRWs_VLN1K6Ig</t>
+          <t>ChIJrdIOYbC_uZQRH8C3_0ZMF8o</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>-21.1475884</v>
+        <v>-21.1541281</v>
       </c>
       <c r="E86" t="n">
-        <v>-47.7950854</v>
+        <v>-47.7943992</v>
       </c>
       <c r="F86" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3991,22 +3992,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>R.A Mecânica ( oficina mecânica )</t>
+          <t>Decar Mecânica Especializada</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>ChIJ6-FUDVy_uZQRC516BrWO6z8</t>
+          <t>ChIJnaxpyj6-uZQRb-najpbQyIU</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>-21.1821588</v>
+        <v>-21.1504494</v>
       </c>
       <c r="E89" t="n">
-        <v>-47.7700389</v>
+        <v>-47.8183427</v>
       </c>
       <c r="F89" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4031,22 +4032,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Decar Mecânica Especializada</t>
+          <t>Auto Mecanica Mesquita</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>ChIJnaxpyj6-uZQRb-najpbQyIU</t>
+          <t>ChIJU97kppG-uZQREMFGpAOPTvs</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>-21.1504494</v>
+        <v>-21.1883373</v>
       </c>
       <c r="E90" t="n">
-        <v>-47.8183427</v>
+        <v>-47.8295136</v>
       </c>
       <c r="F90" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4071,22 +4072,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Auto Mecanica Mesquita</t>
+          <t>Martins Mecânica Automotiva</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>ChIJU97kppG-uZQREMFGpAOPTvs</t>
+          <t>ChIJXx7IgRe_uZQRV55vT2uO_UE</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>-21.1883373</v>
+        <v>-21.1826248</v>
       </c>
       <c r="E91" t="n">
-        <v>-47.8295136</v>
+        <v>-47.7930608</v>
       </c>
       <c r="F91" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4111,22 +4112,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Martins Mecânica Automotiva</t>
+          <t>Orion Mecânica e Oficina Automotiva</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>ChIJXx7IgRe_uZQRV55vT2uO_UE</t>
+          <t>ChIJNfsrNB7BuZQRpXpYLtC93aQ</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>-21.1826248</v>
+        <v>-21.1761612</v>
       </c>
       <c r="E92" t="n">
-        <v>-47.7930608</v>
+        <v>-47.7601077</v>
       </c>
       <c r="F92" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4151,22 +4152,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Orion Mecânica e Oficina Automotiva</t>
+          <t>OtmaCar Oficina Mecânica</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>ChIJNfsrNB7BuZQRpXpYLtC93aQ</t>
+          <t>ChIJR-45G1e_uZQRp_0-2iuMPgI</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>-21.1761612</v>
+        <v>-21.1666083</v>
       </c>
       <c r="E93" t="n">
-        <v>-47.7601077</v>
+        <v>-47.8000087</v>
       </c>
       <c r="F93" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4231,22 +4232,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Mecanica Elcio</t>
+          <t>Sukinha Auto Mecânica</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>ChIJg1Shwrm_uZQRwPqmxcGtVnA</t>
+          <t>ChIJWaSVEmaVuZQRFrNx1TNMGHI</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>-21.1948165</v>
+        <v>-21.1169522</v>
       </c>
       <c r="E95" t="n">
-        <v>-47.8311734</v>
+        <v>-47.7877071</v>
       </c>
       <c r="F95" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4271,22 +4272,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Sukinha Auto Mecânica</t>
+          <t>Auto Mecânica Ramos</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>ChIJWaSVEmaVuZQRFrNx1TNMGHI</t>
+          <t>ChIJrXAnmxS_uZQR6xLIl9fBUkk</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>-21.1169522</v>
+        <v>-21.1741415</v>
       </c>
       <c r="E96" t="n">
-        <v>-47.7877071</v>
+        <v>-47.8038647</v>
       </c>
       <c r="F96" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4311,26 +4312,26 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Auto Mecânica Ramos</t>
+          <t>Presence Mecânica Automotiva</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>ChIJrXAnmxS_uZQR6xLIl9fBUkk</t>
+          <t>ChIJLcPsgTy_uZQRQchqQ1qGzDw</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>-21.1741415</v>
+        <v>-21.1954896</v>
       </c>
       <c r="E97" t="n">
-        <v>-47.8038647</v>
+        <v>-47.7740109</v>
       </c>
       <c r="F97" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['car_repair', 'point_of_interest', 'establishment']</t>
+          <t>['car_repair', 'store', 'point_of_interest', 'establishment']</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
@@ -4351,26 +4352,26 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Presence Mecânica Automotiva</t>
+          <t>Danilo mecanica em geral</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>ChIJLcPsgTy_uZQRQchqQ1qGzDw</t>
+          <t>ChIJBQPHoMKVuZQRP8IcvAEbyVA</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>-21.1954896</v>
+        <v>-21.1040715</v>
       </c>
       <c r="E98" t="n">
-        <v>-47.7740109</v>
+        <v>-47.8281041</v>
       </c>
       <c r="F98" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['car_repair', 'store', 'point_of_interest', 'establishment']</t>
+          <t>['car_repair', 'point_of_interest', 'establishment']</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
@@ -4431,26 +4432,26 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Mecânica MP Auto Center</t>
+          <t>MECÂNICA ALFIAT</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>ChIJc6WMiEy_uZQRAg3miKl9XUw</t>
+          <t>ChIJPcIx0Ty_uZQRnGYZhQCnAXQ</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>-21.1671472</v>
+        <v>-21.1874291</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.802763</v>
+        <v>-47.7929943</v>
       </c>
       <c r="F100" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['car_repair', 'store', 'point_of_interest', 'establishment']</t>
+          <t>['car_repair', 'point_of_interest', 'establishment']</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
@@ -4471,26 +4472,26 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Auto Mecânica L.E.F</t>
+          <t>Mecânica MP Auto Center</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ChIJJfXDsDW_uZQRq_SaUrxgo4Y</t>
+          <t>ChIJc6WMiEy_uZQRAg3miKl9XUw</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>-21.1529406</v>
+        <v>-21.1671472</v>
       </c>
       <c r="E101" t="n">
-        <v>-47.8030686</v>
+        <v>-47.802763</v>
       </c>
       <c r="F101" t="n">
         <v>5</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['car_repair', 'point_of_interest', 'establishment']</t>
+          <t>['car_repair', 'store', 'point_of_interest', 'establishment']</t>
         </is>
       </c>
       <c r="H101" t="inlineStr"/>
@@ -4511,22 +4512,22 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Mecanica Equador</t>
+          <t>Auto Mecânica L.E.F</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>ChIJPZFxDOa_uZQRHD-8JfOAw4U</t>
+          <t>ChIJJfXDsDW_uZQRq_SaUrxgo4Y</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>-21.131188</v>
+        <v>-21.1529406</v>
       </c>
       <c r="E102" t="n">
-        <v>-47.7786126</v>
+        <v>-47.8030686</v>
       </c>
       <c r="F102" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -4551,19 +4552,19 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Josoel Auto Mecânica</t>
+          <t>Mecanica Elcio</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>ChIJ9aYmYPqVuZQRjc4NOJOkQp0</t>
+          <t>ChIJg1Shwrm_uZQRwPqmxcGtVnA</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>-21.1323733</v>
+        <v>-21.1948165</v>
       </c>
       <c r="E103" t="n">
-        <v>-47.8339939</v>
+        <v>-47.8311734</v>
       </c>
       <c r="F103" t="n">
         <v>5</v>
@@ -4591,22 +4592,22 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Auto Eletro e Mecânica Semprini</t>
+          <t>Mecanica Equador</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>ChIJizaAaUC-uZQRet23hL4ew5w</t>
+          <t>ChIJPZFxDOa_uZQRHD-8JfOAw4U</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>-21.1561047</v>
+        <v>-21.131188</v>
       </c>
       <c r="E104" t="n">
-        <v>-47.8214805</v>
+        <v>-47.7786126</v>
       </c>
       <c r="F104" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -4631,22 +4632,22 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Auto Mecânica Elite</t>
+          <t>Josoel Auto Mecânica</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>ChIJZUat1ru5uZQRwi3jLD3O5p4</t>
+          <t>ChIJ9aYmYPqVuZQRjc4NOJOkQp0</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>-21.20471</v>
+        <v>-21.1323733</v>
       </c>
       <c r="E105" t="n">
-        <v>-47.7729201</v>
+        <v>-47.8339939</v>
       </c>
       <c r="F105" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -4671,22 +4672,22 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>WL Auto Mechanics</t>
+          <t>Auto Eletro e Mecânica Semprini</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>ChIJtZI48R-_uZQRFN9BfC73mzw</t>
+          <t>ChIJizaAaUC-uZQRet23hL4ew5w</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>-21.1874356</v>
+        <v>-21.1561047</v>
       </c>
       <c r="E106" t="n">
-        <v>-47.80218420000001</v>
+        <v>-47.8214805</v>
       </c>
       <c r="F106" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -4711,22 +4712,22 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Mecânica James Multimarcas</t>
+          <t>Auto Mecânica Elite</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>ChIJO9rTC0i-uZQRO1G3gKR2JK8</t>
+          <t>ChIJZUat1ru5uZQRwi3jLD3O5p4</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>-21.1533063</v>
+        <v>-21.20471</v>
       </c>
       <c r="E107" t="n">
-        <v>-47.8129762</v>
+        <v>-47.7729201</v>
       </c>
       <c r="F107" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -4751,22 +4752,22 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Cn Oficina Mecânica</t>
+          <t>WL Auto Mechanics</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ChIJAaY83Vu_uZQRwUujuXcBkK4</t>
+          <t>ChIJtZI48R-_uZQRFN9BfC73mzw</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>-21.1840134</v>
+        <v>-21.1874356</v>
       </c>
       <c r="E108" t="n">
-        <v>-47.768851</v>
+        <v>-47.80218420000001</v>
       </c>
       <c r="F108" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -4791,22 +4792,22 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Auto Mecânica Paulo</t>
+          <t>Cn Oficina Mecânica</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>ChIJ5-Ddb629uZQRbFneDshQC5Q</t>
+          <t>ChIJAaY83Vu_uZQRwUujuXcBkK4</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>-21.1974183</v>
+        <v>-21.1840134</v>
       </c>
       <c r="E109" t="n">
-        <v>-47.8486318</v>
+        <v>-47.768851</v>
       </c>
       <c r="F109" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -4831,22 +4832,22 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Rodolfo Sircilli Neto M E</t>
+          <t>Auto Mecânica Paulo</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ChIJXRZloR6_uZQRESoaLpbTRIs</t>
+          <t>ChIJ5-Ddb629uZQRbFneDshQC5Q</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>-21.1822764</v>
+        <v>-21.1974183</v>
       </c>
       <c r="E110" t="n">
-        <v>-47.7997283</v>
+        <v>-47.8486318</v>
       </c>
       <c r="F110" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -4871,19 +4872,19 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Auto Mecânica Flex</t>
+          <t>Rodolfo Sircilli Neto M E</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>ChIJjaH2SV2-uZQRizJNJoh_sGg</t>
+          <t>ChIJXRZloR6_uZQRESoaLpbTRIs</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>-21.1655905</v>
+        <v>-21.1822764</v>
       </c>
       <c r="E111" t="n">
-        <v>-47.822437</v>
+        <v>-47.7997283</v>
       </c>
       <c r="F111" t="n">
         <v>4.9</v>
@@ -4911,19 +4912,19 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Arco-íris Centro Automotivo Mecânica em Geral</t>
+          <t>Auto Mecânica Flex</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>ChIJCaTcwj69uZQRjp_gLlO9LyE</t>
+          <t>ChIJjaH2SV2-uZQRizJNJoh_sGg</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>-21.1969657</v>
+        <v>-21.1655905</v>
       </c>
       <c r="E112" t="n">
-        <v>-47.8490093</v>
+        <v>-47.822437</v>
       </c>
       <c r="F112" t="n">
         <v>4.9</v>
@@ -4951,26 +4952,26 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Chaguri Auto Mecânica</t>
+          <t>Arco-íris Centro Automotivo Mecânica em Geral</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>ChIJ1YL5iFW-uZQRzvG4MDalJaU</t>
+          <t>ChIJCaTcwj69uZQRjp_gLlO9LyE</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>-21.159182</v>
+        <v>-21.1969657</v>
       </c>
       <c r="E113" t="n">
-        <v>-47.8071945</v>
+        <v>-47.8490093</v>
       </c>
       <c r="F113" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>['car_repair', 'store', 'point_of_interest', 'establishment']</t>
+          <t>['car_repair', 'point_of_interest', 'establishment']</t>
         </is>
       </c>
       <c r="H113" t="inlineStr"/>
@@ -4991,26 +4992,26 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Auto Mecânica Rápida</t>
+          <t>Chaguri Auto Mecânica</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>ChIJdYvms2S-uZQRLdGe8gg3K7Q</t>
+          <t>ChIJ1YL5iFW-uZQRzvG4MDalJaU</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>-21.1720207</v>
+        <v>-21.159182</v>
       </c>
       <c r="E114" t="n">
-        <v>-47.8325881</v>
+        <v>-47.8071945</v>
       </c>
       <c r="F114" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>['car_repair', 'point_of_interest', 'establishment']</t>
+          <t>['car_repair', 'point_of_interest', 'store', 'establishment']</t>
         </is>
       </c>
       <c r="H114" t="inlineStr"/>
@@ -5031,22 +5032,22 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Precision Mecânica de Autos</t>
+          <t>Mecânica James Multimarcas</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>ChIJRaVBlx6_uZQRMx-Ut8nqBMY</t>
+          <t>ChIJO9rTC0i-uZQRO1G3gKR2JK8</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>-21.1856782</v>
+        <v>-21.1533063</v>
       </c>
       <c r="E115" t="n">
-        <v>-47.7987543</v>
+        <v>-47.8129762</v>
       </c>
       <c r="F115" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5071,22 +5072,22 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>NM Auto Mecânica</t>
+          <t>Precision Mecânica de Autos</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>ChIJEcE_wlO-uZQRGbbIO7JTpbw</t>
+          <t>ChIJRaVBlx6_uZQRMx-Ut8nqBMY</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>-21.1638788</v>
+        <v>-21.1856782</v>
       </c>
       <c r="E116" t="n">
-        <v>-47.80738280000001</v>
+        <v>-47.7987543</v>
       </c>
       <c r="F116" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5111,22 +5112,22 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Auto Mecânica Balão</t>
+          <t>Auto Mecânica Rápida</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>ChIJTe6WtQa_uZQRAoHnSgpWLho</t>
+          <t>ChIJdYvms2S-uZQRLdGe8gg3K7Q</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>-21.1599224</v>
+        <v>-21.1720207</v>
       </c>
       <c r="E117" t="n">
-        <v>-47.7970783</v>
+        <v>-47.8325881</v>
       </c>
       <c r="F117" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5151,22 +5152,22 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Auto Mecânica Martins</t>
+          <t>Auto Mechanics Vieira</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>ChIJa2imJ9-VuZQR5aEA81mGI2g</t>
+          <t>ChIJI-dFLtC_uZQRFK2-m5cme5o</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>-21.1229708</v>
+        <v>-21.1372749</v>
       </c>
       <c r="E118" t="n">
-        <v>-47.82390179999999</v>
+        <v>-47.7943903</v>
       </c>
       <c r="F118" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -5191,22 +5192,22 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Mecânica Lopes Leão</t>
+          <t>NM Auto Mecânica</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>ChIJc6_Sl5O_uZQRHeaisyjVBu4</t>
+          <t>ChIJEcE_wlO-uZQRGbbIO7JTpbw</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>-21.1545017</v>
+        <v>-21.1638788</v>
       </c>
       <c r="E119" t="n">
-        <v>-47.8219325</v>
+        <v>-47.80738280000001</v>
       </c>
       <c r="F119" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -5231,19 +5232,19 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Auto Mecânica Vitoria</t>
+          <t>Auto Mecânica Balão</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>ChIJz5wW7PK-uZQRo9t1cstcfVM</t>
+          <t>ChIJTe6WtQa_uZQRAoHnSgpWLho</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>-21.1823882</v>
+        <v>-21.1599224</v>
       </c>
       <c r="E120" t="n">
-        <v>-47.8213658</v>
+        <v>-47.7970783</v>
       </c>
       <c r="F120" t="n">
         <v>4.8</v>
@@ -5271,22 +5272,22 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Sampa Car Oficina Mecânica</t>
+          <t>Auto Mecânica Martins</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>ChIJj369T82_uZQROqgPRJyXfcw</t>
+          <t>ChIJa2imJ9-VuZQR5aEA81mGI2g</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>-21.1388696</v>
+        <v>-21.1229708</v>
       </c>
       <c r="E121" t="n">
-        <v>-47.81281269999999</v>
+        <v>-47.82390179999999</v>
       </c>
       <c r="F121" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6271,22 +6272,22 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Oficina Corral Milena</t>
+          <t>Voltecnica Oficina Especializada Volkswagem</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>ChIJeUzVEf6-uZQRkeODqFxqAZE</t>
+          <t>ChIJCat01qu_uZQR5PKEkAieBok</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>-21.1732984</v>
+        <v>-21.1644626</v>
       </c>
       <c r="E146" t="n">
-        <v>-47.8039341</v>
+        <v>-47.7984199</v>
       </c>
       <c r="F146" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -6311,22 +6312,22 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Rodolfo Sircilli Neto M E</t>
+          <t>Oficina Corral Milena</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>ChIJXRZloR6_uZQRESoaLpbTRIs</t>
+          <t>ChIJeUzVEf6-uZQRkeODqFxqAZE</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>-21.1822764</v>
+        <v>-21.1732984</v>
       </c>
       <c r="E147" t="n">
-        <v>-47.7997283</v>
+        <v>-47.8039341</v>
       </c>
       <c r="F147" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -6351,22 +6352,22 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Auto Mecânica Rápida</t>
+          <t>NAVES CENTRO AUTOMOTIVO MECÂNICA DE PRECISÃO</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>ChIJdYvms2S-uZQRLdGe8gg3K7Q</t>
+          <t>ChIJ2dWoivS-uZQRw7wvqxtzfDY</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>-21.1720207</v>
+        <v>-21.1741381</v>
       </c>
       <c r="E148" t="n">
-        <v>-47.8325881</v>
+        <v>-47.8414432</v>
       </c>
       <c r="F148" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -6391,22 +6392,22 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Auto Mecânica Simchryl</t>
+          <t>Rodolfo Sircilli Neto M E</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>ChIJYWxAxeK_uZQR9RjzEMuTorI</t>
+          <t>ChIJXRZloR6_uZQRESoaLpbTRIs</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>-21.1782594</v>
+        <v>-21.1822764</v>
       </c>
       <c r="E149" t="n">
-        <v>-47.8191462</v>
+        <v>-47.7997283</v>
       </c>
       <c r="F149" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -6431,22 +6432,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>DS'CARS OFICINA MECÂNICA</t>
+          <t>Auto Mecânica Rápida</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>ChIJFYcq2NrBuZQReyCnZOxiXqw</t>
+          <t>ChIJdYvms2S-uZQRLdGe8gg3K7Q</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>-21.1809776</v>
+        <v>-21.1720207</v>
       </c>
       <c r="E150" t="n">
-        <v>-47.7338204</v>
+        <v>-47.8325881</v>
       </c>
       <c r="F150" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -6471,22 +6472,22 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Giron Mecânica Automotiva</t>
+          <t>R.A Mecânica ( oficina mecânica )</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>ChIJIyh887m4uZQRg06xBfDFtdc</t>
+          <t>ChIJ6-FUDVy_uZQRC516BrWO6z8</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>-21.209774</v>
+        <v>-21.1821588</v>
       </c>
       <c r="E151" t="n">
-        <v>-47.7792047</v>
+        <v>-47.7700389</v>
       </c>
       <c r="F151" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -6511,22 +6512,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>NAVES CENTRO AUTOMOTIVO MECÂNICA DE PRECISÃO</t>
+          <t>Auto Mecânica Simchryl</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>ChIJ2dWoivS-uZQRw7wvqxtzfDY</t>
+          <t>ChIJYWxAxeK_uZQR9RjzEMuTorI</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>-21.1741381</v>
+        <v>-21.1782594</v>
       </c>
       <c r="E152" t="n">
-        <v>-47.8414432</v>
+        <v>-47.8191462</v>
       </c>
       <c r="F152" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -6551,22 +6552,22 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Voltecnica Oficina Especializada Volkswagem</t>
+          <t>DS'CARS OFICINA MECÂNICA</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>ChIJCat01qu_uZQR5PKEkAieBok</t>
+          <t>ChIJFYcq2NrBuZQReyCnZOxiXqw</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>-21.1644626</v>
+        <v>-21.1809776</v>
       </c>
       <c r="E153" t="n">
-        <v>-47.7984199</v>
+        <v>-47.7338204</v>
       </c>
       <c r="F153" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -6591,22 +6592,22 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Auto Power Oficina Mecânica</t>
+          <t>Giron Mecânica Automotiva</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>ChIJ9xkbaPa_uZQRauUSCgbazR0</t>
+          <t>ChIJIyh887m4uZQRg06xBfDFtdc</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>-21.1740823</v>
+        <v>-21.209774</v>
       </c>
       <c r="E154" t="n">
-        <v>-47.83372480000001</v>
+        <v>-47.7792047</v>
       </c>
       <c r="F154" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -6631,19 +6632,19 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>R.A Mecânica ( oficina mecânica )</t>
+          <t>Auto Power Oficina Mecânica</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>ChIJ6-FUDVy_uZQRC516BrWO6z8</t>
+          <t>ChIJ9xkbaPa_uZQRauUSCgbazR0</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>-21.1821588</v>
+        <v>-21.1740823</v>
       </c>
       <c r="E155" t="n">
-        <v>-47.7700389</v>
+        <v>-47.83372480000001</v>
       </c>
       <c r="F155" t="n">
         <v>5</v>
@@ -6671,22 +6672,22 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>LCN Auto Mecânica</t>
+          <t>Auto Mecânica Brich</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>ChIJZxtf7Xi_uZQRNEP8kK4tHyQ</t>
+          <t>ChIJ-4EWrz-5uZQRMKoAC6t68nU</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>-21.1561783</v>
+        <v>-21.2057057</v>
       </c>
       <c r="E156" t="n">
-        <v>-47.8025536</v>
+        <v>-47.7936882</v>
       </c>
       <c r="F156" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -6711,22 +6712,22 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Oficina Mecânica Afc</t>
+          <t>LCN Auto Mecânica</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>ChIJj4A9ogi_uZQRC9rC-tqM-bI</t>
+          <t>ChIJZxtf7Xi_uZQRNEP8kK4tHyQ</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>-21.1693426</v>
+        <v>-21.1561783</v>
       </c>
       <c r="E157" t="n">
-        <v>-47.7928372</v>
+        <v>-47.8025536</v>
       </c>
       <c r="F157" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -6751,22 +6752,22 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Marfe Auto Mecanica</t>
+          <t>Oficina Mecânica Afc</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>ChIJhVTKbbS_uZQRXxIoJTLPpuU</t>
+          <t>ChIJj4A9ogi_uZQRC9rC-tqM-bI</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>-21.1524371</v>
+        <v>-21.1693426</v>
       </c>
       <c r="E158" t="n">
-        <v>-47.7998013</v>
+        <v>-47.7928372</v>
       </c>
       <c r="F158" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -6791,19 +6792,19 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Mecânica Ogawa</t>
+          <t>Marfe Auto Mecanica</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>ChIJeW7yRUi_uZQRmXvj1FIvbC4</t>
+          <t>ChIJhVTKbbS_uZQRXxIoJTLPpuU</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>-21.1928227</v>
+        <v>-21.1524371</v>
       </c>
       <c r="E159" t="n">
-        <v>-47.78188859999999</v>
+        <v>-47.7998013</v>
       </c>
       <c r="F159" t="n">
         <v>4.8</v>
@@ -6831,22 +6832,22 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Auto Mecanica Mesquita</t>
+          <t>Mecânica Ogawa</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>ChIJU97kppG-uZQREMFGpAOPTvs</t>
+          <t>ChIJeW7yRUi_uZQRmXvj1FIvbC4</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>-21.1883373</v>
+        <v>-21.1928227</v>
       </c>
       <c r="E160" t="n">
-        <v>-47.8295136</v>
+        <v>-47.78188859999999</v>
       </c>
       <c r="F160" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -7071,26 +7072,26 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Poliservice Centro Automotivo</t>
+          <t>Car Works</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>ChIJI0DXKf--uZQRGMMaBUizS7c</t>
+          <t>ChIJ5WsIV7S_uZQRfRvGOebMQTI</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>-21.1723407</v>
+        <v>-21.1778643</v>
       </c>
       <c r="E166" t="n">
-        <v>-47.8076938</v>
+        <v>-47.7994303</v>
       </c>
       <c r="F166" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>['car_repair', 'point_of_interest', 'establishment']</t>
+          <t>['car_dealer', 'car_repair', 'store', 'point_of_interest', 'establishment']</t>
         </is>
       </c>
       <c r="H166" t="inlineStr"/>
@@ -7111,22 +7112,22 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Auto Mecânica Siscati</t>
+          <t>Poliservice Centro Automotivo</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>ChIJd-9rYDS-uZQR0Z95xrVFv9E</t>
+          <t>ChIJI0DXKf--uZQRGMMaBUizS7c</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>-21.1464754</v>
+        <v>-21.1723407</v>
       </c>
       <c r="E167" t="n">
-        <v>-47.8058915</v>
+        <v>-47.8076938</v>
       </c>
       <c r="F167" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -7151,19 +7152,19 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>AUTO MECÂNICA LUTH CAR SERVICE</t>
+          <t>Auto Mecânica Siscati</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>ChIJRZx7O6q_uZQRdC4POFV4Gf4</t>
+          <t>ChIJd-9rYDS-uZQR0Z95xrVFv9E</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>-21.1921359</v>
+        <v>-21.1464754</v>
       </c>
       <c r="E168" t="n">
-        <v>-47.82786369999999</v>
+        <v>-47.8058915</v>
       </c>
       <c r="F168" t="n">
         <v>4.9</v>
@@ -7271,22 +7272,22 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Auto Mecânica Brich</t>
+          <t>AUTO MECÂNICA LUTH CAR SERVICE</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>ChIJ-4EWrz-5uZQRMKoAC6t68nU</t>
+          <t>ChIJezs9eZ-_uZQRwuxehpYwkaI</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>-21.2057057</v>
+        <v>-21.1687703</v>
       </c>
       <c r="E171" t="n">
-        <v>-47.7936882</v>
+        <v>-47.8112943</v>
       </c>
       <c r="F171" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -7311,22 +7312,22 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>AUTO MECÂNICA LUTH CAR SERVICE</t>
+          <t>Oficina Rocar</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>ChIJezs9eZ-_uZQRwuxehpYwkaI</t>
+          <t>ChIJZeCBDdC_uZQRqRfck0ryPtc</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>-21.1687703</v>
+        <v>-21.1493194</v>
       </c>
       <c r="E172" t="n">
-        <v>-47.8112943</v>
+        <v>-47.8130677</v>
       </c>
       <c r="F172" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -7351,26 +7352,26 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Oficina Rocar</t>
+          <t>A Oficina - Amortecedor, Freio, Correia Dentada e Oficina Mecânica</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ChIJZeCBDdC_uZQRqRfck0ryPtc</t>
+          <t>ChIJK1ArDFPBuZQRFB1J6fm31XQ</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>-21.1493194</v>
+        <v>-21.1883776</v>
       </c>
       <c r="E173" t="n">
-        <v>-47.8130677</v>
+        <v>-47.7582466</v>
       </c>
       <c r="F173" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>['car_repair', 'point_of_interest', 'establishment']</t>
+          <t>['car_repair', 'store', 'point_of_interest', 'establishment']</t>
         </is>
       </c>
       <c r="H173" t="inlineStr"/>
@@ -7391,26 +7392,26 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>A Oficina - Amortecedor, Freio, Correia Dentada e Oficina Mecânica</t>
+          <t>Lopes Auto Service</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>ChIJK1ArDFPBuZQRFB1J6fm31XQ</t>
+          <t>ChIJ8yTEr0G-uZQRtd62Kbog1P0</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>-21.1883776</v>
+        <v>-21.1578987</v>
       </c>
       <c r="E174" t="n">
-        <v>-47.7582466</v>
+        <v>-47.8211214</v>
       </c>
       <c r="F174" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>['car_repair', 'store', 'point_of_interest', 'establishment']</t>
+          <t>['car_repair', 'point_of_interest', 'establishment']</t>
         </is>
       </c>
       <c r="H174" t="inlineStr"/>
@@ -7431,22 +7432,22 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Lopes Auto Service</t>
+          <t>ALMA Serviços Automotivos</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>ChIJ8yTEr0G-uZQRtd62Kbog1P0</t>
+          <t>ChIJoY5PiRy_uZQRR3uBILMLnqY</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>-21.1578987</v>
+        <v>-21.2130968</v>
       </c>
       <c r="E175" t="n">
-        <v>-47.8211214</v>
+        <v>-47.7967822</v>
       </c>
       <c r="F175" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -7471,22 +7472,22 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ALMA Serviços Automotivos</t>
+          <t>AUTO MECÂNICA LUTH CAR SERVICE</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>ChIJoY5PiRy_uZQRR3uBILMLnqY</t>
+          <t>ChIJRZx7O6q_uZQRdC4POFV4Gf4</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>-21.2130968</v>
+        <v>-21.1921359</v>
       </c>
       <c r="E176" t="n">
-        <v>-47.7967822</v>
+        <v>-47.82786369999999</v>
       </c>
       <c r="F176" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -7591,22 +7592,22 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>mecanica e eletrica</t>
+          <t>Oficina mecanica rota 66</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>ChIJXUEu5Wq_uZQROiwr9BopMEY</t>
+          <t>ChIJ3997_Ua_uZQRWce8ms1CktU</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>-21.1393918</v>
+        <v>-21.1878713</v>
       </c>
       <c r="E179" t="n">
-        <v>-47.7693071</v>
+        <v>-47.8236176</v>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -7631,22 +7632,22 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Oficina mecanica rota 66</t>
+          <t>Sicar Auto Center</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>ChIJ3997_Ua_uZQRWce8ms1CktU</t>
+          <t>ChIJkc33yEC_uZQRDKE3G-62MJA</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>-21.1878713</v>
+        <v>-21.185809</v>
       </c>
       <c r="E180" t="n">
-        <v>-47.8236176</v>
+        <v>-47.7820876</v>
       </c>
       <c r="F180" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -7671,26 +7672,26 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Car Works</t>
+          <t>Auto Mecânica Cerri</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>ChIJ5WsIV7S_uZQRfRvGOebMQTI</t>
+          <t>ChIJta4Xem-_uZQRnogZG-cX9zg</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>-21.1778643</v>
+        <v>-21.1682961</v>
       </c>
       <c r="E181" t="n">
-        <v>-47.7994303</v>
+        <v>-47.8093229</v>
       </c>
       <c r="F181" t="n">
         <v>5</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>['car_dealer', 'car_repair', 'store', 'point_of_interest', 'establishment']</t>
+          <t>['car_repair', 'point_of_interest', 'establishment']</t>
         </is>
       </c>
       <c r="H181" t="inlineStr"/>
